--- a/data/repo_data.xlsx
+++ b/data/repo_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Gaurav K\GIT Repo\actions-permission\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92047196-386B-4214-940E-65A1D5C25D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189B5C5D-24F3-4F65-BA83-23000E99E13F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
     <t>Repository_Name</t>
   </si>
   <si>
-    <t>action-test3</t>
+    <t>action-test1</t>
   </si>
 </sst>
 </file>
@@ -357,7 +357,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
